--- a/medicine/Enfance/Clotilde_Perrin/Clotilde_Perrin.xlsx
+++ b/medicine/Enfance/Clotilde_Perrin/Clotilde_Perrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clotilde Perrin, née le 8 mai 1977, est une artiste, illustratrice et auteure  de littérature jeunesse française.
 </t>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clotilde Perrin naît en 1977 dans les Vosges[1]. Elle obtient un BTS en communication visuelle à l’école Estienne, puis intègre l’École supérieure des arts décoratifs de Strasbourg en section Illustration[1], dans l'atelier de Claude Lapointe[2]. 
-Son premier ouvrage est publié en 2001. Elle est auteure - illustratrice, et illustre également des ouvrages écrits par d'autres auteurs jeunesse, tels Yaël Hassan[3], Franck Pavloff [4], Alice Brière-Haquet[5] ou Jean-François Chabas[6],[7]. 
-Clotilde Perrin a publié une centaine d'ouvrages[8], chez de nombreux éditeurs jeunesse, dont Rue du monde, Gallimard jeunesse, Éditions Sarbacane, Casterman ou Seuil jeunesse.
-Elle est très inspirée du travail de Maurice Sendak et de Étienne Delessert[2].
-Ses ouvrages sont traduits dans plusieurs pays, dont les États-Unis, la Chine, la Russie ou la Nouvelle-Zélande[2]. La traduction anglaise de son ouvrage Au même instant sur la terre a fait l'objet en 2014 d'un article dans le journal américain The New York Times[9] et dans la revue littéraire américaine Kirkus Reviews[10].
-Elle est également illustratrice de presse, pour Astrapi, J’aime Lire, Les Belles Histoires ou la Revue XXI[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clotilde Perrin naît en 1977 dans les Vosges. Elle obtient un BTS en communication visuelle à l’école Estienne, puis intègre l’École supérieure des arts décoratifs de Strasbourg en section Illustration, dans l'atelier de Claude Lapointe. 
+Son premier ouvrage est publié en 2001. Elle est auteure - illustratrice, et illustre également des ouvrages écrits par d'autres auteurs jeunesse, tels Yaël Hassan, Franck Pavloff , Alice Brière-Haquet ou Jean-François Chabas,. 
+Clotilde Perrin a publié une centaine d'ouvrages, chez de nombreux éditeurs jeunesse, dont Rue du monde, Gallimard jeunesse, Éditions Sarbacane, Casterman ou Seuil jeunesse.
+Elle est très inspirée du travail de Maurice Sendak et de Étienne Delessert.
+Ses ouvrages sont traduits dans plusieurs pays, dont les États-Unis, la Chine, la Russie ou la Nouvelle-Zélande. La traduction anglaise de son ouvrage Au même instant sur la terre a fait l'objet en 2014 d'un article dans le journal américain The New York Times et dans la revue littéraire américaine Kirkus Reviews.
+Elle est également illustratrice de presse, pour Astrapi, J’aime Lire, Les Belles Histoires ou la Revue XXI.
 En 2015, elle intègre la résidence d'automne du Val de Nièvre.
-Plusieurs de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[11].
-Elle est membre de la Charte des auteurs et illustrateurs jeunesse[12].
-Clotilde Perrin vit et travaille à Strasbourg[2].
+Plusieurs de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF).
+Elle est membre de la Charte des auteurs et illustrateurs jeunesse.
+Clotilde Perrin vit et travaille à Strasbourg.
 </t>
         </is>
       </c>
@@ -551,33 +565,104 @@
           <t>Quelques ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Clotilde Perrin a publié une centaine d'ouvrages[8].
-Auteure du texte et illustratrice
-Le colis rouge , Rue du monde, 2007
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clotilde Perrin a publié une centaine d'ouvrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clotilde_Perrin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clotilde_Perrin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure du texte et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le colis rouge , Rue du monde, 2007
 Tout autour de moi, Rue du monde, 2010
 Au même instant, sur la Terre, Rue du monde, 2011
 Qui voilà ?, Rue du monde, 2012
-L'enfant lumineux[13], Rue du monde, 2014
+L'enfant lumineux, Rue du monde, 2014
 L'enfant minuscule, Rue du monde, 2014
 L'enfant volant, Rue du monde, 2014
-À l'intérieur des méchants[14],[15],[16], Seuil jeunesse, 2016
+À l'intérieur des méchants Seuil jeunesse, 2016
 Les histoires croisées de Victor et Zoé , Mango jeunesse, 2017
-À l'intérieur des gentils : pas si gentils[17],[18], Seuil jeunesse, 2017
-À l'intérieur de mes émotions[19], Seuil jeunesse, 2018
-Vite vite vite ! [20], Rue du monde, 2019
+À l'intérieur des gentils : pas si gentils Seuil jeunesse, 2017
+À l'intérieur de mes émotions, Seuil jeunesse, 2018
+Vite vite vite ! , Rue du monde, 2019
 La maison de madame M., Seuil jeunesse, 2019
-Dans sa valise[21], Seuil Jeunesse, 2020
- Ha ! : un cache-cache monstrueux, Seuil jeunesse, 2021
-Illustratrice
-Dans l'oreille du géant, texte de Roland Nadaus, l'Atelier du poisson soluble, 2002
+Dans sa valise, Seuil Jeunesse, 2020
+ Ha ! : un cache-cache monstrueux, Seuil jeunesse, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clotilde_Perrin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clotilde_Perrin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans l'oreille du géant, texte de Roland Nadaus, l'Atelier du poisson soluble, 2002
 La vérité sur les fessées, texte de Martine Dorra, Mango jeunesse, 2002
 J'veux pas de piqûre !, texte de Arnaud Alméras, Mila, 2002
 Le dragon de Mimi, texte de Françoise Guillaumond, Magnard jeunesse, 2004
  Ma soeur en noir et blanc, texte de Stéphane Méliade, Casterman, 2004
 Il fera beau, Julot !, texte de Anne Kerloc'h, Rue du monde, 2004
-Eloa, quand est-ce qu'on s'en va ?[4], texte de Franck Pavloff , Rue du monde, 2005
+Eloa, quand est-ce qu'on s'en va ?, texte de Franck Pavloff , Rue du monde, 2005
 Pourquoi les grenouilles annoncent-elles la pluie ?, un conte de Geneviève Laurencin, d'après la tradition vietnamienne, Père Castor, 2005
 Thomas L'Aristoloche et l'empoisonneur fou, texte de Guillemette Resplandy-Taï, Éd. le Pommier, 2006
 Premier rôle masculin, texte de Fanny Joly, Gallimard jeunesse, 2006
@@ -588,15 +673,15 @@
 Tout sur les mamans, texte de Gwendoline Raisson, Rue du monde, 2009
 Tout sur les papas, texte de Gwendoline Raisson, Rue du monde, 2009
 Entre ciel et terre, textes de Corinne Albaut, Bayard jeunesse, 2009
-Le petit chapubron rouge[22], conception et textes d'Alain Serres, d’après Charles Perrault, Rue du monde, 2010
+Le petit chapubron rouge, conception et textes d'Alain Serres, d’après Charles Perrault, Rue du monde, 2010
 J'ai mis du sable dans mon cartable, texte Christine Beigel, Éditions Sarbacane, 2010
 Pedro à 100 à l'heure, texte fr Raphaële Frier, Mango jeunesse, 2010
-C'est le néléchat ![23], texte de Marie Leymarie, Gallimard jeunesse, 2010
-Aglaé et Désiré[3], texte de Yaël Hassan, Casterman, 2012
+C'est le néléchat !, texte de Marie Leymarie, Gallimard jeunesse, 2010
+Aglaé et Désiré, texte de Yaël Hassan, Casterman, 2012
 L'alphabet prend l'avion pour Zanzibar, texte de Sylvie Misslin, Éd. Amaterra, 2012
 L'ogre bouquiniste, texte de Janine Teisson, Gallimard jeunesse, 2012
-Le grand bazar du Weepers Circus[24], Weepers Circus, Gallimard jeunesse, 2013 - livre-CD
-Le bonhomme et l'oiseau[5], texte d'Alice Brière-Haquet, Père Castor-Flammarion, 2013
+Le grand bazar du Weepers Circus, Weepers Circus, Gallimard jeunesse, 2013 - livre-CD
+Le bonhomme et l'oiseau, texte d'Alice Brière-Haquet, Père Castor-Flammarion, 2013
 Enzo et le monstre du plafond, texte de Franck Prévot, Hatier, 2014
 Le conte des trois flocons, texte de Gaël Aymon, Bayard jeunesse, 2015
 La petite sœur du Chaperon rouge, texte de Didier Lévy, Milan, 2015
@@ -604,79 +689,83 @@
 Prisonnière de l'ogre, texte de Jeanne Boyer, narrateurs, Hubert Drac, Claire Gueydon, Bayard jeunesse, 2016 - livre-CD
 Le violon de Nicolas, texte de Alice Brière-Haquet, Éditions Feuilles de menthe, 2016
 Weepers Circus chante n'importe nawak !, Weepers circus, Gallimard jeunesse musique, 2016 - livre-CD
-Ici et là, les maisons d'Akira[25], texte de Claire Ubac, Albin Michel jeunesse 2018
+Ici et là, les maisons d'Akira, texte de Claire Ubac, Albin Michel jeunesse 2018
 Jules et le grand hêtre, texte de Raphaële Frier, Éditions Feuilles de menthe, 2018
-Dans les yeux de Nawang[6],[7], texte de Jean-François Chabas, Albin Michel jeunesse, 2019
+Dans les yeux de Nawang texte de Jean-François Chabas, Albin Michel jeunesse, 2019
 Le meilleur du cinéma pour les enfants : les films incontournables à montrer aux 3-6 ans, texte de Benshi, Seuil jeunesse, 2022
 La toute petite maison, texte de Michaël Escoffier, Kaléidoscope, 2022</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Clotilde_Perrin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clotilde_Perrin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sélection Prix des incorruptibles 2016[26] pour Le Bonhomme et l'oiseau, texte de Alice Brière-Haquet, qu'elle a illustré
-Sélection Prix Landerneau Album Jeunesse 2020[27] pour Vite, vite, vite ! 
-Plusieurs de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sélection Prix des incorruptibles 2016 pour Le Bonhomme et l'oiseau, texte de Alice Brière-Haquet, qu'elle a illustré
+Sélection Prix Landerneau Album Jeunesse 2020 pour Vite, vite, vite ! 
+Plusieurs de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Clotilde_Perrin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clotilde_Perrin</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Quelques expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2012 : Clotilde Perrin,  Espaces Temps, Mulhouse
 2018 : Voyages étonnants avec Clotilde Perrin, en partenariat avec la Fête du Livre de Jeunesse, Saint-Paul-Trois-Châteaux
 2021 :
 A l'intérieur de Clotilde Perrin, Galerie Ephémère, Champagnole
 L’univers de Clotilde Perrin, Festival du livre de Colmar
- Clotilde Perrin : Vite, vite, vite ![28], Foire du livre de Francfort (Allemagne)</t>
+ Clotilde Perrin : Vite, vite, vite !, Foire du livre de Francfort (Allemagne)</t>
         </is>
       </c>
     </row>
